--- a/resData/syncControlDistance_1600_40_1_1_k1.xlsx
+++ b/resData/syncControlDistance_1600_40_1_1_k1.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,2742 @@
       </c>
       <c r="CW1" t="n">
         <v>0.05225045124083952</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.09812982215299178</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07045520154948361</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0150659279717603</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1041895929346171</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.04846552404927535</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06026502969956494</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09380816076998374</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06922944673590033</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1474701178596646</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.05771911756024622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0920717903007528</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.119526605636742</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.08031235733624004</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.07893682231186909</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.05717577017671261</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2313784501685017</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.07833401727077444</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.136179486650414</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1893194818443233</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2558168236779768</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1118915610276844</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.128899697419986</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.3535314198941677</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5160325373914741</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2289153498649554</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.665036590510616</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.6791996743110655</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7891939023187087</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.7113582349826353</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9437946941590215</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.000000000000024</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.8079396124033486</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.8152841534712971</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6297405937596188</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.989265458842754</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.9645286720915712</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9916969522908723</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.9420269644762476</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.98361864077744</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.98337453338048</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.9463325875480346</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.9768496452281964</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9372105495178674</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.9216103250129803</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.8863731699159643</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.9921498454628273</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.8536529655080837</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.7891828259365091</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.9821754695756211</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.9940018464127077</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.8806550968691833</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.8295981156160043</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.9661439061173291</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.9949672634944443</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.9652401563349753</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.9995191676177274</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.964051763001387</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.9995819617055386</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.9970019326544272</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.9862337309345982</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.9405074533120513</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.9988348327255632</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.9994603625994978</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.9999445887713666</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.9979397629597945</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.9914043739460198</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9965678640090583</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.997477096174326</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.1342859063389969</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.240642458739694</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.079737437022073</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.09934091093018632</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.1042890215343003</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02027108630081931</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.1340468770790244</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.06677273953386588</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.02763793017171749</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.08125001700919064</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.0885457332303634</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.09541520474569767</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.02183252858931922</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.04542963102948987</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.03590552701272817</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.1074814411021008</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.03039528759328793</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.04729058380189552</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.028676425960415</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.04052130841154446</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.02971279766845206</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.0467102929067866</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.05714345798799281</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.03363879521439549</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.08026884277233913</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.05712664219075439</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.0530040369055454</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.038386317955281</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.02846308733888284</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.07743314264574529</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.03772241176463279</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.08050657061771124</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.03953079272107488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.2123860844851426</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03261354798910805</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0082118584493073</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04904846363632932</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1765769003368285</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07109719409333821</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04371898733381467</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1494666841965036</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03957494952010199</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1690016405890723</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.009314536470731478</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03518195389896492</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.08316213945761242</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3252741078178794</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1430235232076602</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.09910895767832818</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1741645891972169</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1965802840406647</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.3416480545219422</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.3183662916354272</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3837088694881</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.6814840567291073</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.627965233842773</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8608453415904762</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3934791282277332</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9665656303145704</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.8786552421983019</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6971108061155111</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.9246784560728029</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.994442237066262</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.9583008955792774</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.8594026854869979</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9944220853202665</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.9829978641890783</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.9973723789186556</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.5590925339347226</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.9451987515091814</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.979588746996559</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.9916810585584436</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.9614577369981734</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.9928517896921383</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.9947972965001594</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.9999999999999989</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.9652815370531812</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.9541712677510021</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.9972978547086696</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9918697869629293</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.999812388561492</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.9897235005239043</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.9710836858031768</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.9994897158303979</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.999534639418357</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.9963924718323628</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.8392858560995744</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.9973585961854144</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.993907945567445</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.9975663361606493</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.9741540305434936</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.9995405625654583</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.9999946289725792</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.9670369944636924</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.9793259894352708</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.9988144800457239</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.9961135965957419</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.9939459836875014</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.9625033346810506</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.9971759839917829</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.8942836526436637</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.9979781930106627</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.1732649677803732</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.1643052032862255</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.1095770137599811</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.02554103407565841</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.06060652872244857</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.05670542389826541</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.08818957739368846</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.1748373545531725</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.04748593567864396</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.02070641931177849</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03094923767742598</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.06655277998574</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.04394111000845979</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.09598869728919024</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.06743056715968269</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.08383946515717014</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.02926007241181916</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.07624918173199599</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.05243690412819799</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.03202287265700378</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.07714318199245868</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.03652295419864072</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.02852728014667235</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.03199979422769585</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.02413675507268919</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.07325644206714813</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.01280869732974121</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.0386569175377543</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.06012634246371093</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.04108749966714569</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.03695556235368128</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.04521719714380484</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.2049186158019983</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.09564802090650656</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.06279425450032838</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09568769031184368</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06908455420637279</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1843335334215851</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0765353123102489</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.06019272285640134</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.07459303038014546</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.03122655218127767</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1220437778031684</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05216237219332652</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05491602546213301</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09374035247071452</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05245539047653294</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2632141750127299</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.09236729509814143</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2181184300263215</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3960266289134454</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1662737358555193</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.8675851442621735</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.08749875571014605</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.4687467022860307</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.520240933938421</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6148675343812043</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9574539517704982</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9169359710757523</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.4158333265692089</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.8412365448468766</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9848476415317083</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.9013917573622032</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9933319418816374</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9782679122710394</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.3010509160821562</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.9991407680218157</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.9022181381124876</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.9813499326444588</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.9865260727098676</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.9543215402025088</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.9999999999999926</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.9884956997370247</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.9757868842309421</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.8122264241590166</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.9859500728941099</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.9960470217223655</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.8938266883828888</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.6357499343384476</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2606267671337182</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9918913946507649</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.9072782700021729</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.9341385224565742</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.9592871460566512</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.9335421168620127</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.9906675269052159</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.9706922174796929</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.9998769063759713</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.9577618712515826</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.9971964883243026</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.999890301308192</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.997690980021494</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.9142584467544382</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.9989267594136948</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.9969891689807088</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.994638109628897</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.9974374223246198</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.9998052518881382</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.9985475617429471</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.9936677137530271</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.3790885913864626</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.1264330675132594</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.0637871556553074</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.2279645130008763</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.1430209578325459</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.03450070421277855</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.03603340552887924</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.05214146158709711</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.0142050469508862</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.04813203880179515</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.05512240322936745</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.1289219520981507</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.05046892466791925</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.09415040806143535</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.09786473356176917</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.05035497583631441</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.03301374629096128</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.04230117628609098</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.0271178949085777</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.0153903003193457</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.03139853137171297</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.04016640296702898</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.05226426187431812</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.06701129608029856</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.01187538183121592</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.04573163767168434</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.04591678638135969</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.05255576871898199</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.02901177738230105</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.07970263043516936</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.0219182704078391</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.05903150260797983</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.02637625609916443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1158823282888065</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2790569624863172</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.05916256175156726</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04161578221392517</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1246715726055908</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.005763824712093247</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04599978904471165</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09099422914332349</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2245332579268152</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.03309900717955458</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05378411333549647</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.204738209028865</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3059118982572103</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1158315255942308</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0289177597126059</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1241134517054146</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1642402177321366</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.09724162718115022</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1906297516301163</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5510128824119797</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.4025822415655632</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2683355498926044</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8266737465477816</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.2652886138035692</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9520021441947434</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.7971947449195569</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.801634123485085</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9792694877750027</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.7434098832792775</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9901555588044049</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9945424516121316</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.8462295653549625</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.6612763894363408</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.9960994411719423</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.9667364597488354</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.9887405005822885</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.980627093342008</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.9697605329706679</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.9879337046098499</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.9911360913929518</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.9774438497563074</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.9996191343843611</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.9571352407415549</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.8770913335494726</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.9857189254563719</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.9268460393947829</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.9086914084050286</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.2683833209378148</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.9974672593295308</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.9302134505946361</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.973757764507968</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.8106739029729794</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.6536644704611783</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.9833653129486924</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.9964232344101827</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.9904302847979549</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.9933591500429216</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.9914842837735578</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.9261765696939672</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.9985010434455863</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.9994022911684328</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0.9987943052317939</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.9999916355549342</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.9999213966743272</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.9971424378253717</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.9991597187643313</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.9980475448088516</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.9847743491589699</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.4887899468776838</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.366685984768706</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.2630033920850492</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.2948332521493133</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.06829105329494667</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.09768430155241095</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.07647062461763943</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.052855637271844</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.09204167901010094</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.03455945908441045</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.06451543436325101</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.09228468128361852</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.03713372609477664</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.06559726576216818</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.02583230234358114</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.06559208914859535</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.04030406436158367</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.02872004000878758</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.04700509564927465</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.08336256747784368</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.0413077298178294</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.0744909433680207</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.01306865073662695</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.07283264591765454</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.08038098098826843</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.07506857511634671</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.04026241067064193</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.02908352235393869</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.03649345287031444</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.05873530881176505</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.01426667078181188</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.09668077655764933</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.06726626932048702</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.03980991976158492</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0842484314901379</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03071521695301059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2119101591141929</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07217326318567363</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1278813634206112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1068338183806062</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07315600182751772</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2336943376220215</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0693551548998446</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1471000767325861</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2113123335381847</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.03050217818218394</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2506028149804336</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05477017493139849</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1939645373667275</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1124291450717822</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1317560664134523</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.1012551234180506</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.08467996144616917</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.4169886611473996</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.4548309568195894</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.4693637976008456</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.7415598940973933</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.7679219324658439</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8811344236868844</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4374898400978017</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.8991344517904102</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8842560549940299</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.9284415450248583</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.9889089769422408</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.8623134738739089</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.9209264114276121</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.8915431156591835</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.9190711283773279</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.9900077669694902</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.8256877220291643</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9905229247440681</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9990121301379656</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9984829895119735</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9941938697540081</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9999999999999809</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9789790764836863</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9990559520820405</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.9838215834836355</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.9859035999606938</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.9864839451674915</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.9988181950900131</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.9760680085805913</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.992166336571194</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.9477635847918013</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.6719577301353509</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.9764889435544843</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.9999472410925039</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.9999676029554714</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.9991957744973285</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.9839792779723353</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.9983206377712471</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.946188311878099</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.985651440845311</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.9944260497622673</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.9997586687257223</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.9998088334619769</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.9994504766865375</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.97116063382677</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.9965272477048793</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.9946612588052224</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.9904944156424746</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.2881128516741174</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.1039851402002873</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.2146866267286253</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.1239883907271251</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.035527100809946</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.04270483448358114</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.1088335151885875</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.07936881156418463</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.09633438911450488</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.03066600828104885</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.07505495675560281</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.0339398375860667</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.04298514024975103</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.08769348904461204</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.05137057353249438</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.09477196918728942</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.007442727553064557</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.04276496673085581</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.05682904810189236</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.05657219123924718</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.07343391308739999</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.0622751958944882</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.03338928691391591</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.04672855597320266</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.0365525386879381</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.0463556536298942</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.05958474323699762</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.1175646362514896</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.04806501993894727</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.03770437498147914</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.05333920266931711</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.04357969758603473</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.01506328997119079</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.07748556947579191</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1324109955577662</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.03662638817870616</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1708532145749143</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1253930119717752</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1310684253009955</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.02729493175376718</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1294630131341425</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03796060264180594</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1474368690968918</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.08559047298798468</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.02179377197616339</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1111819355901991</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.08363237360749647</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1250748895037656</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0477613349010529</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0530050616741438</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.09549946073737084</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.2482881712154818</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.2441864546122968</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.06870198122573851</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.141570987804242</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7352715249297813</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4584345922059574</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1030931109793096</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.8806403562680089</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.9798739241818102</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.919931166101793</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.8884220029885155</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.9837260744878804</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.9989550342044368</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.9995063744519299</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.8779142098382325</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.994145009396912</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.6892074707117248</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.8017016528663325</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.9507838182510622</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.9464319564188887</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.9961035213128814</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.9950583548873262</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.9729594713990692</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.9789966889577076</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.9906727162237265</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.9314535317810438</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.9572609221937199</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.9999992900526695</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.8720800928061039</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.9860316885479939</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.9999620076057734</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.9956235684255872</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.9497881143485063</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.9952524761661645</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.999999960614494</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.9882153852616213</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.9973241387655642</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.9817459866921786</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.9341523642106532</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.9887668546658803</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.9917937532685304</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.9993042678410337</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.9942352099206531</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.9999448631746206</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.9890986670558286</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.9997573992640418</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.9995809235530885</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.9992137702728434</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.9838928048949646</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.9853912531661447</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.4239361875418251</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.09286203985112527</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.1806539685854675</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.2129808097651741</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.1306452458919718</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.04057021543430835</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.1109375855620538</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.02411234989789712</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.02935698980000315</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.03011146213116416</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.05897112636117394</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.07651624260421626</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.05095844115716178</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.03323968503702186</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.03968215302732803</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.09191653032265812</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.02431585797395656</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.02811164473887229</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.04649148034821577</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.1064648101233838</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.06253548573087513</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.02864339337653794</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.04240208639389516</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.008893318370128972</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0.01629689094284417</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.0649943166205094</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.005899572707732581</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.1100358068166269</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.01968999560266293</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.01276265785703998</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.04072559785878836</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.004219135915552065</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.05617135848868318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.01269681242877149</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1110084497001089</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05613578724541713</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0482290774722556</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1711442846778099</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09342668480653016</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.118744746043582</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.06958780964982295</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02606821610895372</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.05099099799670499</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2595784815030497</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0862272503351168</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1207751235203183</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05005890554384191</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.04796095672814142</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2210459940920122</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1287424664647999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1379760771249718</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.305601699934861</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5371194283099947</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3526739988961446</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1976293474074779</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1837049370406432</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.229113915747551</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.4847789019112412</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6579853665521082</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5418323098447124</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.6849308153282346</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.9515836326181162</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.9309645679234063</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9772574988683104</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.311473841205619</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.98877467106391</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.4395779933469867</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.9029528082967399</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.8044321792627221</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.9647284470584279</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.9623019259606131</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9548443808809028</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.8914125063806665</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.9689595041043682</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.7380748895608784</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.9757593442121494</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.9985543463357491</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.9999707827820932</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.9876397993055557</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.7831379989853873</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.9718843115917963</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.9868761745421231</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.9947564958190821</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.9560757816552214</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.8834762762101279</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.9895507198907711</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.995055416054014</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.9908184213248503</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.9966487130115883</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0.9261485788949926</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0.9998242297191853</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.9965399784484009</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.9996328798873465</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.9860462498736042</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.9897096059087638</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.9998249103300093</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0.9995383231704364</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.9972652054736892</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.9999849578356464</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.9994849965077409</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0.9993305618091013</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.3372877578806911</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.10881431144556</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.08752542816897194</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.08570523168909817</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.006909573742857353</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.01717783942936256</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.06734683369416791</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.1143195361018712</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.01160566195629072</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.01017148040209901</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.0187990920902036</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.04020529761817106</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.05037700249810758</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.03238803271651792</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.07888193666812722</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.04690985545776724</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.05730785700654795</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.07985805135546645</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.04931116932458701</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.01820385183375742</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.08397135820229967</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.02306986197194012</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.08791799582803513</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.1131680177532945</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0.01409151958258678</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0.02923174226203796</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0.03538018266973406</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0.009041074099759402</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0.01666923052983781</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0.01814020660998238</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0.0469514899166362</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0.0633376399735775</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0.0820095679379246</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.07343575240761954</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.044410122680636</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01600265089761355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04345503405166934</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1052525205131564</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1187818348222356</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05306853323211964</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1194934244857219</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1681814042383826</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.03382176528659972</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2138350207049086</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1082315463808337</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.02193793408164455</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1112710846715145</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.2330197398222815</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.08407812858992791</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.09574983575760652</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2761237672292278</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3137308785926446</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1725948309270267</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.67458051165594</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.3054647501519315</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2911805812460013</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6634146988106295</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.345952701619066</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3826712346976934</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.79042214107942</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.7685324920122782</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.5623051190525966</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.272765182769505</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9165577531903371</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9376480400421338</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9734590273617565</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.9957899617466794</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.9474363723639108</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.900619231970993</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9406706631331258</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9039829112658184</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.5565038003924904</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9487650319152803</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9927788021685784</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9997241731611674</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9781407496751693</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9989153395709616</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.9971572885189116</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.9988465358410136</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.993649603200174</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.8806171306917779</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.9729222906914506</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.9999997695587081</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.9953737277892462</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.9483391848751143</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.9999999999444755</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.9867464922049907</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.9926193592526156</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.9669892965235529</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.9898859505372721</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.9987323249081221</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.9981687824564714</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.9787799986367831</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.9716188514298912</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.9997374639667833</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.9923584255340961</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.9993869369032405</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.9989968034523072</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.9943872453326382</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.9995610539339027</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.9829089182767141</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.2788449429659988</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.1460090322560361</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.1148912520903322</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.08110156621256394</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.1225575628205446</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.1678015088749726</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.1261787273584849</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.09649330769505129</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.08580966600918594</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.0738957113995322</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.07728539097078004</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.0358411545465985</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.1053987946265838</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.09652649257910896</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.1233297517481521</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.05607938405284076</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.03068356554768224</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.06284838580166388</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.1047617051021418</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.0629991088752023</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.0138643933976177</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.05138306216040777</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.09239228539394471</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.04275150109543815</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.04213544536890567</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.06723001668075451</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.05512582425973176</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.04892904410963725</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.05288919787749943</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.03303969785798946</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.05681521216609613</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.04898877642691633</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.02060603004603583</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.05304865372368593</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0897104070319905</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01985260231834659</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0592699909073143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.06671053952905016</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06458437483907903</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1263092963543979</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1305359902147604</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1005717226090833</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2368041139346652</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04447230923717684</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1322916715570891</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.09767485828001587</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.009564158522031152</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1562233398738751</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3889794072884077</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.06187260824777687</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2013708588327569</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.338205330614457</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2061481946548613</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.1421491631726286</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.09114197977257799</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.6927042052635629</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4450478440832438</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5213182675434933</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9725407231227844</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.2882713572378658</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.8608999969606935</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.8696755822243147</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.9447651679579208</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.7702683742088946</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.7361285859013124</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.990980203416407</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.9870247274233662</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.8447757269798126</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.9795548146792118</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.9887342292486591</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.9039608355220607</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.994360070772764</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.8762592334706586</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.9380600735287465</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.98889481829751</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.9935735319085469</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.9624839820372376</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.9999998689355897</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.9553154647319962</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.9406787169036253</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.9356242376565501</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.9656105853349608</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.9681402223269623</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.9970430076295501</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.9691630982974193</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.9955890783182315</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.9955499722248612</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.9964428875463632</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.9922569849097748</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.9998889689433994</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.9959936446975148</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.9864037333932061</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.9937674407252731</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.99935952514382</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.9983033141453952</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.9972194552363601</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.997990205384658</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.9857079754582546</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.2791461272039298</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.1546432514768747</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.1688363977976715</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.04014026958449587</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.04450253537453798</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.1377467192966673</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.03488918781140242</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.07775963345508188</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.05345227357163197</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.04788356959650267</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.03394282997657461</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.009663499633300061</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.04237499896732946</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.09323025224607359</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.02798318176903538</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.05344609772870963</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.03787172493153879</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.06947751578829953</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.03215218987574211</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.03652416294948449</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.06331279144768734</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.01719356823687967</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.08467550722075787</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.0490233069469592</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.04566906184221983</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.03433123529231565</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.05640501229183472</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.09311134083430543</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.04359913746431396</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.06287247102823093</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.03201402868305995</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.05346033176318864</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.04375935607592319</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +3426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,6 +3737,2742 @@
       </c>
       <c r="CW1" t="n">
         <v>4.592983931046853</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.007855320896426</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.976062684084552</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.768318786427686</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.601860535677442</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.735496942432869</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.847581319193639</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.19240384136112</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.83078802919065</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.978784409813263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.232865005396667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.033244732839414</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.632658364220579</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.039136379152857</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.653859721032934</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.784077170018745</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.856679158397225</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.437523689064705</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.656008048318144</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.513771670209859</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.043062933916945</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.697530172543585</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.766964747937802</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.290472791700469</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.624200289437282</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.544392460493911</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.90289700737454</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.663949515642703</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.663641890614486</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.563814733455166</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.950882139500519</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.247402243205593</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2.147208619897594</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2.425256862988829</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.661601228151595</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.331146253540094</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2.437192870053746</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.991629169794712</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.398652002517026</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.414847710595316</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.629654642498227</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.05836401142162</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.832436688362921</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2.34375430009394</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2.174426138340737</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2.450693481111399</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.388107955097887</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2.389432141165606</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2.136668104221115</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2.035804085332352</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2.188018142146934</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.261157517913231</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2.274389687464492</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1.779386623699429</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2.315414340633032</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.907166869776273</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2.706869345564733</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>2.826042110671152</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.433318756036599</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>2.977914190332753</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>3.078473289851174</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>3.071352770518911</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3.217822148996356</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.570320756421545</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3.452975810367588</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.978843703404126</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3.343888401021265</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>3.674005323116213</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3.29980091301021</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>4.58481179526954</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>4.593010114918061</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>4.58965617566443</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>4.58954921110699</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>4.596322656814553</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>4.593680002735438</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>4.594687081794783</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>4.594443232367897</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>4.59194961947963</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>4.593941057664408</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>4.59519772908507</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>4.595135460946092</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>4.591867378406056</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>4.594210683811431</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>4.594065478208118</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>4.59387180291226</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>4.595422797522895</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>4.59284899161459</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>4.588515991695281</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>4.595389512684436</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>4.593235628014136</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>4.594409530816567</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>4.595023951051949</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>4.593336241281349</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>4.59139220821685</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>4.595755985656658</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>4.595267096491825</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>4.594806555115754</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>4.594794172627763</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>4.595538159352944</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>4.59453418411252</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>4.597966824602565</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>4.596514928662057</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.688878990413981</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.078348495801388</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.809513846240993</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.1016077675097</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.493686441959439</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.605905875557417</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.293294228224042</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.776529517606081</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.763146666780322</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.050913246765002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.074760654374793</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.874996102718268</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.868460524925374</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.805424342805931</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.347675470570906</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.735125663154411</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.214474394207636</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.58244586705568</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.324525422938487</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.83326790839091</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.517140055828876</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.204493889383656</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.902973968482612</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.719033456542046</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.554499817847655</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.4471544886019689</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.156312897045902</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.047294572358328</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.126101361712692</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.853893437684488</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.360273393385234</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.998782874631884</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.074623940503411</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.173203988930938</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1.321730295214759</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.052291892579525</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.199131737970798</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.318415391678644</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.734944408699481</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.676714200863462</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.626946950663677</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2.125836467014684</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.716051717540381</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.764131186499093</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.977321275435763</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.770277835935928</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>2.355524118723364</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.310370573395704</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2.344829981507524</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2.11171428741977</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.319320463359927</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>2.017008951722691</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2.064644118737888</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2.055837214192056</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2.189223599456881</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>2.769299072053071</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2.948259719129304</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.003789367140396</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>2.662932000406037</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.698985281970832</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>3.103079522538509</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.166815877997458</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3.27553904254116</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.505556066592723</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.538574723030235</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2.962472692910458</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3.880255527603844</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4.17764735101525</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3.689099729981239</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>4.585765464966873</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.593782871313813</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>4.590611415971099</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4.589659716092125</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>4.594235892129425</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>4.594884392488352</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>4.594866227108164</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>4.594356234470764</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>4.598209493582895</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>4.591166231205471</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4.591822155217926</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>4.593334363322963</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>4.594980198853181</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>4.594169152967942</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>4.591070364583109</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>4.595574406007603</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>4.594205657682531</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>4.594537326954375</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>4.594346920144916</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>4.594828861903978</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>4.593570801698013</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>4.596481225391655</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>4.589917258103973</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>4.592197107947745</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>4.593522089448252</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>4.594811027297179</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>4.597220107885223</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>4.594326991308567</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>4.597158017891502</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>4.594620654293026</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>4.592880071284633</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>4.597222409129786</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.902268330476914</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.998846885598565</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.090354631274817</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.594187183259919</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.638641665957894</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.013502221857282</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.91490292281832</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.251453523853996</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.078003980419736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.650820397650348</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.817190535302267</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.658216296515533</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.681813648543988</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.667531534483007</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.912236300841351</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.14163174679463</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.330593246439963</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.701957470310193</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.509593542774536</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.858206073824676</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.175082144024523</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.935097213177216</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.090929344678525</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.912179286791183</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.383746824668917</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.410689157192555</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.525371667377116</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.841255043993225</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.177369018412586</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.381557709903215</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.632172268104571</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.428174328227597</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1.338768476549487</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1.682555622312414</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.9211529290681102</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.877208935423595</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.399836105658529</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2.071849250649089</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.632596913288903</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.17442914480658</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2.380511341785747</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.403297239218347</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2.077009613178418</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2.420735901516575</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.827712848671708</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1.932485449278425</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2.189187375377141</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2.145870680901755</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2.039191325077681</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2.55999629647554</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2.265858348000184</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1.91903254664134</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2.837955877746323</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2.808194641340349</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2.900562020392409</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.952616576901441</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2.575282848350957</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2.071158164470666</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>3.114534850113593</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3.093378387296843</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2.963825128857198</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.12913424010322</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.947693927115731</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.395390708505038</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>3.507310729534353</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>3.523433378432412</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>3.815320022150501</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3.671254051409897</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>4.585316297784538</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>4.595315115242038</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>4.591158346837799</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>4.593567646964111</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4.594139637988314</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>4.595306443943859</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>4.595510660555068</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>4.595499308031063</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>4.594969760679314</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>4.593997716150272</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>4.594018615338414</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>4.592556390024789</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>4.593382255327731</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>4.594422497901918</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>4.595150062412176</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>4.596586698125655</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>4.596186347733953</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>4.596706759863917</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>4.593558731838176</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>4.592058524750182</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>4.593043585476062</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>4.594446770584849</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>4.595050570138129</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>4.592262582600786</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>4.595794009484641</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>4.593192773870928</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>4.594027701093168</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>4.592909841866135</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>4.591011936797511</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>4.593174694509663</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>4.594242296529471</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>4.595416998915541</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>4.594893913980521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.826655300946263</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.662623243352375</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.842231304125877</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.783545728445166</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.612718359471146</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.989882822850314</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.831751752767</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.575047247300413</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.426358897816425</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.77408782317847</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.854502821924477</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.540121852040753</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.541864673756382</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.710704184102997</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.827558148186637</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.276805993483752</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.44918246903655</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.875307467914968</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.644310647809732</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.406051106949752</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.144929813219182</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.111289952777845</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.845854162788786</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.038684755983864</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.519966856233662</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.66382944097757</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.9040759089752</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.799449194683143</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.044930163414304</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.743245993674509</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9943030253152881</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.47794159025408</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2.003600178477932</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.990743981347642</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1.733678332208962</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.788773248078738</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2.100403095530059</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.004182871863786</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.121416152622354</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.007237251501674</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2.315417741509436</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1.555969698861856</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2.039025238825779</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2.430997446713282</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.68683504355435</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.040988172706819</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2.537563445824844</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2.161823683694965</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2.609090142255749</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2.477394857670671</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2.660980351219003</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>2.394663894101196</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>2.61655907979996</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2.160991668814854</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>2.797283123705189</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2.476624541320989</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2.881474830859006</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3.03343660147191</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>2.575560028523086</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>3.157724960796378</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2.873911586726596</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.428695564682905</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>3.168447098096309</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.258963671923629</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.109947810636638</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>3.353967001133103</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.098201989235726</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>3.384183617092391</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>4.580196099394266</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>4.584507655505292</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>4.592479516124883</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>4.593637612095075</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4.596230872280929</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>4.592948314120071</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>4.595429478738539</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>4.595419698736665</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>4.595350742201272</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>4.594271365521613</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>4.590836445773838</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4.595152631987244</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>4.594361120479898</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>4.593811778956958</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>4.596907899704076</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>4.595519840220946</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>4.593483734439721</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>4.594580216985126</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>4.594065474235285</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>4.598067673830234</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>4.594608413777014</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>4.594235174881177</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>4.59432959382139</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>4.594623419329717</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>4.592238916800321</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>4.592147807141182</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>4.593797882751782</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>4.593455007312459</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>4.594736702830156</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>4.596185617098267</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>4.595974092180397</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>4.595505466379961</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>4.59346540084655</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.873189760234784</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.00380690522972</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.996513039989143</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.979832410478237</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.757364759002116</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.912117544241359</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.313812133197572</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.750531807255003</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.52201157569841</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.436094069017287</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.826408629912712</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.526229480264335</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.96588947872872</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.713732415006437</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.533622624341475</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.498518014163404</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.387867296230124</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.94800495506276</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.483790007795883</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.141174212779763</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.391819286121479</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.13902744617255</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.962336212317406</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.837336956571064</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.187314109894679</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.568392136457827</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.870354247595768</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.476445306137369</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.527845309691008</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.865715791568258</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.697629440780454</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.907186204118753</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.023917511217257</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.986017656795646</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.727437619033561</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.894223916343526</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.357491033013491</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.317924041451458</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.967636274087865</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.65211000240963</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.983611763397837</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.328867087856907</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.932620246607979</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2.894406866315977</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.564851704758888</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.322418048316643</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.647175274362375</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.471074052066151</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>2.310526739704157</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>2.639359648453133</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2.337971643161652</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2.448154568193883</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>2.299139156598169</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>2.328003408539457</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>2.659231259249367</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2.633839954069598</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>2.441280150086632</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.785975262345906</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>3.01049241617081</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3.190609620334679</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>3.446080152977729</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.847972580748933</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>3.10824370558578</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.969200741000014</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3.177016530192001</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>3.606851610481775</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>3.590878576892828</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>3.66985676965527</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>4.557525583382038</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>4.592917347530405</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>4.589645810347122</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>4.590554281178925</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4.590278858703865</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>4.589847495231156</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>4.593243908019312</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>4.591154311043398</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>4.591982448179139</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>4.592726363863559</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>4.591540527874841</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>4.5947457898913</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>4.594270178386278</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>4.591189304472815</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>4.594873960602508</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>4.59590865243249</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>4.594207457682836</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>4.595110828988181</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>4.593352904444721</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>4.592268435131324</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>4.594336570449223</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>4.595918039349587</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>4.595106892544903</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>4.594840260647702</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>4.594137896512692</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>4.595504662112119</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>4.594604997661208</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>4.591742641769055</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>4.595290234208213</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>4.595349414440973</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>4.593710393035925</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>4.5957594693722</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>4.593795453715701</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.249565095672295</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.926203140090749</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.94394560412009</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.847521395773942</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.872449492069681</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.113494856095495</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.239176047685842</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.747043478585714</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.57094927740644</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.016889917020777</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.944387801939766</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.700781311760077</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.555523128816674</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.727449773318096</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.567421014579898</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.245890382832726</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.741824370666196</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.641159825398413</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.097637937378046</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.224555142619182</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.503542967723941</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.245392479990848</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.572585555781968</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.569479761540783</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.871090013971562</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.682061267574863</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.683603187048738</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.672202083322793</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.215191531230353</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.212766097121365</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.769514931200405</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.691812062648886</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1.330250887920944</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.7165101679794175</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1.765476623895779</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.647213014119932</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.986197620633457</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.79965597288344</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.819212339886457</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.15803265323625</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.846244463842407</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.936629811582009</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.245018315294494</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>2.437934364121626</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>2.845010729711775</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.195440911025753</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>2.006167564531225</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>2.606946817139546</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>2.413902367424221</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2.616072122335006</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>2.469695765139057</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>2.321828211326808</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>1.937712247272076</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>2.268563205167251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3.027431083731224</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2.626865375853995</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2.449166958957033</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.749700146175538</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.7689836757445</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.614954996459954</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3.135796012645993</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>3.041573575663853</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>3.403144282088263</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.093051182236976</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3.193247042797729</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>3.177304840566269</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>2.987344986711776</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>3.787783738308816</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>4.579017942293076</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>4.583872423545558</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>4.592644304426017</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>4.59272330948006</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4.593221126329773</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>4.590598757492213</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>4.594809597376019</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>4.592957957611572</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>4.59343924338372</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>4.592360622188013</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>4.597720065868899</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>4.596556414186201</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>4.594191339781318</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>4.597268933138952</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>4.597466605193532</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>4.593016070364755</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>4.592935832019858</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>4.596841537872647</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>4.594049752653317</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>4.594803025194939</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>4.594629632075985</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>4.593099560627539</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>4.596601705968703</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>4.592052334657282</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>4.594168875600355</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>4.594882925919499</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>4.592036697034412</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>4.594375739611175</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>4.594116807616954</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>4.593541579045668</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>4.594720370935002</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>4.59374713922304</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>4.595323129053781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.156585262379868</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.141368728347217</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.568508570490304</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.160062124820509</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.4956550369281</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.045460599060425</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.009283843090147</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.665223235213537</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.223740305492173</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.122533684768136</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.570320276332012</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.961187398955258</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.489887639962155</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.991606108940855</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.740297624323151</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.656114039009965</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.582225308502399</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.31020416018492</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.448302518021415</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.645570757929768</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.126566168231042</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.427815640404184</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.866164935035216</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.716656107365532</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.941958864623563</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.470459311289046</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.6659126695723</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.986126702050751</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.315119068668784</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.61045695468943</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.355931597954819</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.271113003916379</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.151694662555585</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.895372990863091</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.117810834033213</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.558726489048069</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.51171062879988</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.275979865852815</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.440424845323911</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.111136630877726</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.444014152884947</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.923882865445843</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.003726334656991</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2.36350682520968</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.559130029227838</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.877062664594446</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>2.780809181167179</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>2.617715452424847</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>2.055842574113126</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2.761984657629993</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2.198604616555734</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>2.372942106068594</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>2.49783924355913</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>2.662557333245511</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>2.952928870998344</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>2.756999718035269</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.996496747004843</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.936649853854382</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>2.710450069768092</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>2.433062266648766</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>2.944169193982982</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>3.018370207951059</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3.138281090002905</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2.706559208132128</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>3.314588382973526</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>3.6556769279562</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.575806605753169</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>3.501264898466027</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>4.462691177482606</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>4.58898261402094</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>4.593433240901505</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>4.591380030782315</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4.594187285947527</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>4.590246218933572</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>4.590103596968303</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>4.594660488500463</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>4.59325698742707</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4.591821590313235</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>4.59319269422829</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>4.593831710740812</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>4.592334238974847</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>4.59394419083542</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>4.59108002859264</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>4.594743875522161</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>4.592927146400163</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>4.596358891547519</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>4.59470113871275</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>4.594275682349256</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>4.594628162033751</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>4.595023384415998</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>4.595018406178845</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>4.596402732606863</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>4.596313424056692</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>4.593982649486468</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>4.59726449658717</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>4.592124547465146</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>4.592764981568132</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>4.597447551818836</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>4.595010102856307</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>4.596983928096759</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>4.594346793358402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.913048663517329</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.253629227981011</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.165122038326872</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.529511049319101</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.697460699977491</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.970570261647129</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.981246516024989</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.04762443404122</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.67598891295103</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.027247885485971</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.775717557662717</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.653844520136255</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.852306659916045</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.455658637860752</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.586660312018365</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.465051669129033</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.826041387405327</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.702474606765726</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.259962253453319</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.095686582689918</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.634758860670701</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.161886197335448</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.621577603332471</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.122968879773717</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2.101421490976428</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.291773622866232</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.749000053235346</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.931265500593919</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.651141437279467</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.678617302752504</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.919809908129457</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.380719432695374</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.143695054636871</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.999871803098197</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.027524516932036</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.89663257716374</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.308713966113217</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.714600229621514</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.638951426047756</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.460992014998586</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.975516996244088</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.105637977206686</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.336246433764406</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>2.428330685092878</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>2.229734997131172</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>1.726023761535704</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>2.601265585219007</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1.916425309026647</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>2.780041805738878</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2.075367074477219</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2.70092629724782</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>2.190523273792214</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.821363979957605</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2.812485039268929</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>2.459020452491535</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2.472152355744167</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.926087056683055</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>3.289773932929049</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>2.682826250989131</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3.024669754136284</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>2.834038466185214</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.688006860828333</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>3.369792052651643</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.291894260566115</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3.437365948731876</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>3.092738690337808</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>3.242943171349156</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>3.983552147811425</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>4.582996240844333</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>4.591607618957064</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>4.591155536968443</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>4.593968196833177</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4.587149537260212</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>4.592278023839344</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>4.597204607731782</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>4.592255289902214</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>4.594093938296262</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>4.595137264247237</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>4.594999816464624</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>4.593270313100118</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>4.592396542196372</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>4.594672429750902</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>4.596637170222504</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>4.595650308497821</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>4.595957024047421</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>4.593470855012015</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>4.596749707881393</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>4.597233496504679</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>4.593877882186113</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>4.593851955956469</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>4.59053405777286</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>4.595592467685809</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>4.596596958918863</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>4.595557102971447</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>4.593059574542862</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>4.592337000442581</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>4.59590820053503</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>4.594575496491336</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>4.595890425832986</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>4.592089206930487</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>4.596330398280497</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.30179210826639</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.904933158049293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.718446300356965</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.067699087539426</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.868341010287066</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.248692526195165</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.119138624202831</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.765510083006004</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.087366894673383</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.772735276516646</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.839680940460632</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.815003494184185</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.811049163864537</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.002454677250271</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.508788222602227</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.274846876497903</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7074648612896</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.116917654822922</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.297966451258237</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.572908843046303</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.048680078540464</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.065298199614429</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.587998680658443</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.868960378989612</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.851570620005729</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4344098655255649</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.172480344735499</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.956590117457316</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.963526835548471</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.32901006664704</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.739617576047382</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1.936025007648748</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.501705047891464</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.689036781557304</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.318931561736177</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.287720703682179</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.039591378961758</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.867522511548491</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2.428549902662596</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>2.546152731909794</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>2.17906837460742</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2.144414730429027</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.26655292060687</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>2.466414387363483</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>2.01909108242013</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>2.40455476616112</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2.766963663279805</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2.357738803080074</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1.941787503132085</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>2.634437192989731</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>2.327114914316535</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>2.170873979746685</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>3.114382634332618</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>2.904379235756304</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>2.549921805988243</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>3.112747934118417</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.742283329966909</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>3.284710871713323</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2.678187606935655</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.948745797462747</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3.606701378386607</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3.758305338367626</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>3.60809010976775</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.83493314741398</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>3.662662355250618</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>4.590954390329177</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>4.592995855458434</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>4.591547547048227</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>4.593134348020521</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>4.591774113332304</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>4.591644074713854</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>4.59213429835135</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>4.595107690931509</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>4.595991277138288</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>4.591202889025586</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>4.593687024472268</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>4.592894073937472</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>4.59501763253411</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>4.595499525492543</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>4.594753433918314</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>4.590411059840119</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>4.594384320786206</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>4.593886875222217</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>4.59630206957749</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>4.596145982737491</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>4.596450044736292</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>4.592927632341013</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>4.593895512777473</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>4.595780449718809</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>4.59615236373796</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>4.592123147114869</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>4.595848368973822</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>4.595309906015734</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>4.597564356250797</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>4.59474863896116</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>4.594980370504345</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>4.594378436970239</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>4.595221413011076</v>
       </c>
     </row>
   </sheetData>
